--- a/templates/外部参考数据模板.xlsx
+++ b/templates/外部参考数据模板.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="使用说明" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="参考数据" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="使用说明" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="参考数据" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,9 +504,7 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr"/>
-    </row>
+    <row r="11"/>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
@@ -567,7 +565,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BF11"/>
+  <dimension ref="A1:BF12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -870,642 +868,1894 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr"/>
-      <c r="AH2" t="inlineStr"/>
-      <c r="AI2" t="inlineStr"/>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
-      <c r="AL2" t="inlineStr"/>
-      <c r="AM2" t="inlineStr"/>
-      <c r="AN2" t="inlineStr"/>
-      <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="inlineStr"/>
-      <c r="AQ2" t="inlineStr"/>
-      <c r="AR2" t="inlineStr"/>
-      <c r="AS2" t="inlineStr"/>
-      <c r="AT2" t="inlineStr"/>
-      <c r="AU2" t="inlineStr"/>
-      <c r="AV2" t="inlineStr"/>
-      <c r="AW2" t="inlineStr"/>
-      <c r="AX2" t="inlineStr"/>
-      <c r="AY2" t="inlineStr"/>
-      <c r="AZ2" t="inlineStr"/>
-      <c r="BA2" t="inlineStr"/>
-      <c r="BB2" t="inlineStr"/>
-      <c r="BC2" t="inlineStr"/>
-      <c r="BD2" t="inlineStr"/>
-      <c r="BE2" t="inlineStr"/>
-      <c r="BF2" t="inlineStr"/>
+          <t>2015年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1684.14306930693</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-548.581188118812</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-558.943564356436</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-526.291089108911</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-513.940099009901</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-1052.44306930693</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-53.1920792079208</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-37.0876237623762</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-0.036579207920792</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-0.00943564356435646</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3.12633168316831</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.06980198019802</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-1.25193069306931</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.278415841584158</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-2.70024752475248</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.47118811881189</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2.85836633663367</v>
+      </c>
+      <c r="S2" t="n">
+        <v>6.46495049504952</v>
+      </c>
+      <c r="T2" t="n">
+        <v>6.70074257425744</v>
+      </c>
+      <c r="U2" t="n">
+        <v>-2.43393069306931</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-2.69263366336634</v>
+      </c>
+      <c r="W2" t="n">
+        <v>-1.27644059405941</v>
+      </c>
+      <c r="X2" t="n">
+        <v>-0.344371287128712</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-3.71737623762376</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>-0.7074257425742581</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-0.812198019801981</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>-1.75372277227723</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.175316831683168</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>-1.17302970297029</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.249465346534654</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>-1.45724257425743</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>-1.60638118811881</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>-1.53898514851485</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>-3.00360396039604</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-3.47232673267326</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>-3.27391089108911</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-1.54761386138614</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-2.41129702970297</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>-1.31388613861386</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>-1.27163861386139</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.544871287128713</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-162.411386138614</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0.152970297029703</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0.0294554455445543</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0.969356435643564</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>-0.877772277227722</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>-0.904257425742574</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0.101584158415842</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>-1.3779702970297</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>-0.53361386138614</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>-0.0557425742574257</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>-2.6340770791075</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>-0.14</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>-9.167326732673271</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>63.3955592105263</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr"/>
-      <c r="AH3" t="inlineStr"/>
-      <c r="AI3" t="inlineStr"/>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
-      <c r="AL3" t="inlineStr"/>
-      <c r="AM3" t="inlineStr"/>
-      <c r="AN3" t="inlineStr"/>
-      <c r="AO3" t="inlineStr"/>
-      <c r="AP3" t="inlineStr"/>
-      <c r="AQ3" t="inlineStr"/>
-      <c r="AR3" t="inlineStr"/>
-      <c r="AS3" t="inlineStr"/>
-      <c r="AT3" t="inlineStr"/>
-      <c r="AU3" t="inlineStr"/>
-      <c r="AV3" t="inlineStr"/>
-      <c r="AW3" t="inlineStr"/>
-      <c r="AX3" t="inlineStr"/>
-      <c r="AY3" t="inlineStr"/>
-      <c r="AZ3" t="inlineStr"/>
-      <c r="BA3" t="inlineStr"/>
-      <c r="BB3" t="inlineStr"/>
-      <c r="BC3" t="inlineStr"/>
-      <c r="BD3" t="inlineStr"/>
-      <c r="BE3" t="inlineStr"/>
-      <c r="BF3" t="inlineStr"/>
+          <t>2016年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1782.6451863354</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-475.150621118012</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-486.75983436853</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-449.700569358178</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-445.328157349896</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-843.894151138716</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-47.7049689440994</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-31.8788819875776</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-0.0488716356107662</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-0.015916149068323</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3.11507763975155</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.902096273291926</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-0.990838509316772</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.228467908902692</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-2.33276397515528</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.41923375614808</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2.76720165674346</v>
+      </c>
+      <c r="S3" t="n">
+        <v>6.34939166450945</v>
+      </c>
+      <c r="T3" t="n">
+        <v>6.49117266373285</v>
+      </c>
+      <c r="U3" t="n">
+        <v>-2.08797877846791</v>
+      </c>
+      <c r="V3" t="n">
+        <v>-2.35681418219462</v>
+      </c>
+      <c r="W3" t="n">
+        <v>-1.03025103519669</v>
+      </c>
+      <c r="X3" t="n">
+        <v>-0.309712732919255</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>-3.52461180124225</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>-0.622489648033126</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>-0.692073517991198</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>-1.47988354037267</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.183408385093168</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>-0.998690476190477</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.236793478260869</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>-1.23631633445509</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>-1.37960403726708</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>-1.23047372508414</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>-2.64070652173913</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>-3.02301242236026</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>-2.81725414078674</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>-1.33330486542443</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>-2.10913819875776</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>-1.11942287784679</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>-1.12127070393375</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.413196169772257</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>-142.566770186335</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.16583850931677</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0.06873706004140789</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.883643892339544</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>-0.861206004140785</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>-0.892857142857142</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0.0483695652173912</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>-1.22512939958592</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>-0.461775362318841</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>-0.036542443064182</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>-1.87841236573225</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>-0.050310559006211</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>-1.18845456898783</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>49.7301720520353</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="inlineStr"/>
-      <c r="AH4" t="inlineStr"/>
-      <c r="AI4" t="inlineStr"/>
-      <c r="AJ4" t="inlineStr"/>
-      <c r="AK4" t="inlineStr"/>
-      <c r="AL4" t="inlineStr"/>
-      <c r="AM4" t="inlineStr"/>
-      <c r="AN4" t="inlineStr"/>
-      <c r="AO4" t="inlineStr"/>
-      <c r="AP4" t="inlineStr"/>
-      <c r="AQ4" t="inlineStr"/>
-      <c r="AR4" t="inlineStr"/>
-      <c r="AS4" t="inlineStr"/>
-      <c r="AT4" t="inlineStr"/>
-      <c r="AU4" t="inlineStr"/>
-      <c r="AV4" t="inlineStr"/>
-      <c r="AW4" t="inlineStr"/>
-      <c r="AX4" t="inlineStr"/>
-      <c r="AY4" t="inlineStr"/>
-      <c r="AZ4" t="inlineStr"/>
-      <c r="BA4" t="inlineStr"/>
-      <c r="BB4" t="inlineStr"/>
-      <c r="BC4" t="inlineStr"/>
-      <c r="BD4" t="inlineStr"/>
-      <c r="BE4" t="inlineStr"/>
-      <c r="BF4" t="inlineStr"/>
+          <t>2017年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1897.3815940367</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-383.587586009174</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-392.176462155963</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-365.127723623853</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-360.699111238532</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-682.32067087156</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-39.0983371559633</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-25.0054472477064</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-0.04109375</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-0.00967029816513766</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3.10686066513761</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.7141628440366939</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.97564506880734</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.119997133027523</v>
+      </c>
+      <c r="P4" t="n">
+        <v>-1.91383314220182</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.33657626632228</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2.68550724637682</v>
+      </c>
+      <c r="S4" t="n">
+        <v>6.2132874156981</v>
+      </c>
+      <c r="T4" t="n">
+        <v>6.26299325584735</v>
+      </c>
+      <c r="U4" t="n">
+        <v>-1.80253153669724</v>
+      </c>
+      <c r="V4" t="n">
+        <v>-1.9871875</v>
+      </c>
+      <c r="W4" t="n">
+        <v>-0.90545154816514</v>
+      </c>
+      <c r="X4" t="n">
+        <v>-0.265972461273666</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>-2.86117326448652</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>-0.5459977064220179</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>-0.620599799110345</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>-1.30727494266055</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.08820670871559649</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>-0.861123853211007</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.232044151376146</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>-1.10603529918209</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>-1.24218319954128</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>-1.07215382407806</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>-2.24139334862385</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>-2.56860378440367</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>-2.39798308486239</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>-1.10286697247707</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>-1.79184202981651</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>-0.895563360091746</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>-0.881658543577984</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.306821961009175</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>-115.59868043603</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0.0789013195639702</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0.183901949541284</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0.5853211009174319</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>-0.7754300458715589</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>-0.686281536697247</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>0.0289420871559633</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>-0.970885894495413</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>-0.337815366972477</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>-0.0292287844036693</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>-1.58758600917431</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>0.0205275229357799</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>-5.70454871574114</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>49.7560975609756</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="inlineStr"/>
-      <c r="AD5" t="inlineStr"/>
-      <c r="AE5" t="inlineStr"/>
-      <c r="AF5" t="inlineStr"/>
-      <c r="AG5" t="inlineStr"/>
-      <c r="AH5" t="inlineStr"/>
-      <c r="AI5" t="inlineStr"/>
-      <c r="AJ5" t="inlineStr"/>
-      <c r="AK5" t="inlineStr"/>
-      <c r="AL5" t="inlineStr"/>
-      <c r="AM5" t="inlineStr"/>
-      <c r="AN5" t="inlineStr"/>
-      <c r="AO5" t="inlineStr"/>
-      <c r="AP5" t="inlineStr"/>
-      <c r="AQ5" t="inlineStr"/>
-      <c r="AR5" t="inlineStr"/>
-      <c r="AS5" t="inlineStr"/>
-      <c r="AT5" t="inlineStr"/>
-      <c r="AU5" t="inlineStr"/>
-      <c r="AV5" t="inlineStr"/>
-      <c r="AW5" t="inlineStr"/>
-      <c r="AX5" t="inlineStr"/>
-      <c r="AY5" t="inlineStr"/>
-      <c r="AZ5" t="inlineStr"/>
-      <c r="BA5" t="inlineStr"/>
-      <c r="BB5" t="inlineStr"/>
-      <c r="BC5" t="inlineStr"/>
-      <c r="BD5" t="inlineStr"/>
-      <c r="BE5" t="inlineStr"/>
-      <c r="BF5" t="inlineStr"/>
+          <t>2018年</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1977.89972500491</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-315.531035160086</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-321.632586918091</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-302.749361618543</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-295.06040070713</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-606.063838145747</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-33.198978589668</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-21.1455509723041</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-0.0301335690434098</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-0.00426144175996858</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3.09301021410333</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.636427028088782</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.840345708112355</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.150923197800039</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-1.57784325279905</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.26576257861634</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2.5626572327044</v>
+      </c>
+      <c r="S5" t="n">
+        <v>6.16337723609202</v>
+      </c>
+      <c r="T5" t="n">
+        <v>6.11081187340282</v>
+      </c>
+      <c r="U5" t="n">
+        <v>-1.62603712433707</v>
+      </c>
+      <c r="V5" t="n">
+        <v>-1.73060597132193</v>
+      </c>
+      <c r="W5" t="n">
+        <v>-0.801122569239834</v>
+      </c>
+      <c r="X5" t="n">
+        <v>-0.258081532416503</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>-2.36790766208252</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>-0.53457572186211</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>-0.6240870676100631</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>-1.23365547043802</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.133602435670791</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>-0.784971518365743</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.133885287762719</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>-0.991039701257859</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>-1.07288941268906</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>-0.958335298742139</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>-1.96769004124927</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>-2.24694264388136</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>-2.14527499508938</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>-0.969969554115105</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>-1.54569927322726</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>-0.77082694951876</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>-0.7403378511098</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0.193057356118642</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>-96.1943025540275</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0.08934184675834971</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0.275466509526615</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0.358456098998232</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>-0.638715380082498</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>-0.556668630917305</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>0.0336181496758986</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>-0.745786682380674</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>-0.300471420153211</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>-0.02178353957965</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>-1.4128658416814</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>0.0371942234011198</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>8.112257937678169</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>32.5983967305879</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="inlineStr"/>
-      <c r="AD6" t="inlineStr"/>
-      <c r="AE6" t="inlineStr"/>
-      <c r="AF6" t="inlineStr"/>
-      <c r="AG6" t="inlineStr"/>
-      <c r="AH6" t="inlineStr"/>
-      <c r="AI6" t="inlineStr"/>
-      <c r="AJ6" t="inlineStr"/>
-      <c r="AK6" t="inlineStr"/>
-      <c r="AL6" t="inlineStr"/>
-      <c r="AM6" t="inlineStr"/>
-      <c r="AN6" t="inlineStr"/>
-      <c r="AO6" t="inlineStr"/>
-      <c r="AP6" t="inlineStr"/>
-      <c r="AQ6" t="inlineStr"/>
-      <c r="AR6" t="inlineStr"/>
-      <c r="AS6" t="inlineStr"/>
-      <c r="AT6" t="inlineStr"/>
-      <c r="AU6" t="inlineStr"/>
-      <c r="AV6" t="inlineStr"/>
-      <c r="AW6" t="inlineStr"/>
-      <c r="AX6" t="inlineStr"/>
-      <c r="AY6" t="inlineStr"/>
-      <c r="AZ6" t="inlineStr"/>
-      <c r="BA6" t="inlineStr"/>
-      <c r="BB6" t="inlineStr"/>
-      <c r="BC6" t="inlineStr"/>
-      <c r="BD6" t="inlineStr"/>
-      <c r="BE6" t="inlineStr"/>
-      <c r="BF6" t="inlineStr"/>
+          <t>2019年</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2102.53343144155</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-213.707082986755</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-217.297011964937</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-206.36771386525</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-201.207498880287</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-393.343783991298</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-24.1065327276217</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-13.3945869857317</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-0.0288962825516666</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-0.0013628511101158</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3.06476358052339</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.416610147802161</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.793448077292211</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.0371936784183249</v>
+      </c>
+      <c r="P6" t="n">
+        <v>-1.03390492034039</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.22300697957354</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.45349298841006</v>
+      </c>
+      <c r="S6" t="n">
+        <v>6.07844656464108</v>
+      </c>
+      <c r="T6" t="n">
+        <v>5.89021579048475</v>
+      </c>
+      <c r="U6" t="n">
+        <v>-1.30959882270139</v>
+      </c>
+      <c r="V6" t="n">
+        <v>-1.39343208138717</v>
+      </c>
+      <c r="W6" t="n">
+        <v>-0.68936400281528</v>
+      </c>
+      <c r="X6" t="n">
+        <v>-0.216346941387255</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>-1.59545047350909</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>-0.453410966792498</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>-0.545239162451177</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>-1.03243521658455</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.0621408919316654</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>-0.6388617313967619</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.0754098150873375</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>-0.87160210027534</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>-0.888934032887583</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>-0.806477556508937</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>-1.58438095847463</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>-1.7914933776953</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>-1.73653336745793</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>-0.791053170388379</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>-1.22506238402969</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>-0.692168404888353</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>-0.649749824045045</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.152252863267004</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>-66.1366137701561</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.0157473765037113</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.217921812016123</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0.130891291829292</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>-0.413359779896347</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>-0.377829675603046</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>0.009527161046772091</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>-0.462108900121567</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>-0.215061744193487</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>-0.0143579243713607</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>-0.86211529848359</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>0.0373792309168852</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>8.968431837100599</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>27.5291279810668</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2021年</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="inlineStr"/>
-      <c r="AB7" t="inlineStr"/>
-      <c r="AC7" t="inlineStr"/>
-      <c r="AD7" t="inlineStr"/>
-      <c r="AE7" t="inlineStr"/>
-      <c r="AF7" t="inlineStr"/>
-      <c r="AG7" t="inlineStr"/>
-      <c r="AH7" t="inlineStr"/>
-      <c r="AI7" t="inlineStr"/>
-      <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr"/>
-      <c r="AL7" t="inlineStr"/>
-      <c r="AM7" t="inlineStr"/>
-      <c r="AN7" t="inlineStr"/>
-      <c r="AO7" t="inlineStr"/>
-      <c r="AP7" t="inlineStr"/>
-      <c r="AQ7" t="inlineStr"/>
-      <c r="AR7" t="inlineStr"/>
-      <c r="AS7" t="inlineStr"/>
-      <c r="AT7" t="inlineStr"/>
-      <c r="AU7" t="inlineStr"/>
-      <c r="AV7" t="inlineStr"/>
-      <c r="AW7" t="inlineStr"/>
-      <c r="AX7" t="inlineStr"/>
-      <c r="AY7" t="inlineStr"/>
-      <c r="AZ7" t="inlineStr"/>
-      <c r="BA7" t="inlineStr"/>
-      <c r="BB7" t="inlineStr"/>
-      <c r="BC7" t="inlineStr"/>
-      <c r="BD7" t="inlineStr"/>
-      <c r="BE7" t="inlineStr"/>
-      <c r="BF7" t="inlineStr"/>
+          <t>2020年</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2205.12578867128</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-107.96995426293</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-107.122575348892</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-110.681294710918</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-97.8508033305969</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-329.031124662836</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-13.5053594464642</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-8.71112935381729</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.0017696728040343</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.008701536296470041</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3.03703881787261</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.353432625776946</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.596606074821158</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.08759704468159971</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-0.572227043508852</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.14585133358378</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.37613401577759</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5.93685668670173</v>
+      </c>
+      <c r="T7" t="n">
+        <v>5.64460227272728</v>
+      </c>
+      <c r="U7" t="n">
+        <v>-1.23480544153865</v>
+      </c>
+      <c r="V7" t="n">
+        <v>-1.22010789257652</v>
+      </c>
+      <c r="W7" t="n">
+        <v>-0.630981822446348</v>
+      </c>
+      <c r="X7" t="n">
+        <v>-0.294483615978231</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>-0.933750850280305</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>-0.534024862202418</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>-0.648494494917487</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>-1.03035956373871</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.0382530784566671</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>-0.654367772956488</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.0833378679488687</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>-0.818945860919382</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>-0.853506508736952</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>-0.762794186701728</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>-1.39234056526328</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>-1.6163905242172</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>-1.59467198311246</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>-0.722011492904892</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>-1.08233986161604</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>-0.59378116570892</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>-0.554105559465164</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0.06259411281810701</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>-35.2085708254169</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0.0491286092932706</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0.426757358977369</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0.0452327899612997</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>-0.253567909922588</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>-0.215681444991789</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>0.0257283603096411</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>-0.268421299554306</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>-0.127661271405113</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>-0.00746422707013843</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>-0.677799929635276</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>0.06641957352975771</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>33.4467610528046</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>14.4955473053311</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022年</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="inlineStr"/>
-      <c r="AB8" t="inlineStr"/>
-      <c r="AC8" t="inlineStr"/>
-      <c r="AD8" t="inlineStr"/>
-      <c r="AE8" t="inlineStr"/>
-      <c r="AF8" t="inlineStr"/>
-      <c r="AG8" t="inlineStr"/>
-      <c r="AH8" t="inlineStr"/>
-      <c r="AI8" t="inlineStr"/>
-      <c r="AJ8" t="inlineStr"/>
-      <c r="AK8" t="inlineStr"/>
-      <c r="AL8" t="inlineStr"/>
-      <c r="AM8" t="inlineStr"/>
-      <c r="AN8" t="inlineStr"/>
-      <c r="AO8" t="inlineStr"/>
-      <c r="AP8" t="inlineStr"/>
-      <c r="AQ8" t="inlineStr"/>
-      <c r="AR8" t="inlineStr"/>
-      <c r="AS8" t="inlineStr"/>
-      <c r="AT8" t="inlineStr"/>
-      <c r="AU8" t="inlineStr"/>
-      <c r="AV8" t="inlineStr"/>
-      <c r="AW8" t="inlineStr"/>
-      <c r="AX8" t="inlineStr"/>
-      <c r="AY8" t="inlineStr"/>
-      <c r="AZ8" t="inlineStr"/>
-      <c r="BA8" t="inlineStr"/>
-      <c r="BB8" t="inlineStr"/>
-      <c r="BC8" t="inlineStr"/>
-      <c r="BD8" t="inlineStr"/>
-      <c r="BE8" t="inlineStr"/>
-      <c r="BF8" t="inlineStr"/>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2322.33756211248</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.421353502484499</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.83828767424476</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-10.6696055582428</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.3482256716943</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-187.090079591926</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-2.09491667033112</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-2.49019392287059</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0229290708412118</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.0145723582955888</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3.00530715447866</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.0257970186007651</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.353992788355833</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-0.0478650894859508</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-0.0830152587836937</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.10414944146364</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2.2869689506553</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5.83930951072016</v>
+      </c>
+      <c r="T8" t="n">
+        <v>5.3723452446399</v>
+      </c>
+      <c r="U8" t="n">
+        <v>-0.9908335165559899</v>
+      </c>
+      <c r="V8" t="n">
+        <v>-0.9571034695044141</v>
+      </c>
+      <c r="W8" t="n">
+        <v>-0.589000923442242</v>
+      </c>
+      <c r="X8" t="n">
+        <v>-0.265025064860823</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>-0.270753265027923</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>-0.451954619409881</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>-0.55810717505552</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>-0.820911569412078</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.104005540653445</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>-0.550634536739815</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.06517127654896521</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>-0.774646626792155</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>-0.736881403632213</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>-0.673442255255521</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>-1.11266391099776</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>-1.27815487445583</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>-1.25852930829777</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>-0.540365639153944</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>-0.846913284376235</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>-0.419521788839539</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>-0.363644378971443</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>-0.0181062838045823</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>-2.73972120839013</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>-0.06918781056242</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>0.470594960643775</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>-0.101393958049339</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>-0.0074074888414944</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>-0.049717464435698</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>0.0220487676172468</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>-0.153226622105935</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>-0.0902684637540954</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>0.00517798641190811</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>-0.248590651246647</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>0.121347845206684</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>38.8378889499725</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>4.31632765255635</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2023年</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr"/>
-      <c r="AB9" t="inlineStr"/>
-      <c r="AC9" t="inlineStr"/>
-      <c r="AD9" t="inlineStr"/>
-      <c r="AE9" t="inlineStr"/>
-      <c r="AF9" t="inlineStr"/>
-      <c r="AG9" t="inlineStr"/>
-      <c r="AH9" t="inlineStr"/>
-      <c r="AI9" t="inlineStr"/>
-      <c r="AJ9" t="inlineStr"/>
-      <c r="AK9" t="inlineStr"/>
-      <c r="AL9" t="inlineStr"/>
-      <c r="AM9" t="inlineStr"/>
-      <c r="AN9" t="inlineStr"/>
-      <c r="AO9" t="inlineStr"/>
-      <c r="AP9" t="inlineStr"/>
-      <c r="AQ9" t="inlineStr"/>
-      <c r="AR9" t="inlineStr"/>
-      <c r="AS9" t="inlineStr"/>
-      <c r="AT9" t="inlineStr"/>
-      <c r="AU9" t="inlineStr"/>
-      <c r="AV9" t="inlineStr"/>
-      <c r="AW9" t="inlineStr"/>
-      <c r="AX9" t="inlineStr"/>
-      <c r="AY9" t="inlineStr"/>
-      <c r="AZ9" t="inlineStr"/>
-      <c r="BA9" t="inlineStr"/>
-      <c r="BB9" t="inlineStr"/>
-      <c r="BC9" t="inlineStr"/>
-      <c r="BD9" t="inlineStr"/>
-      <c r="BE9" t="inlineStr"/>
-      <c r="BF9" t="inlineStr"/>
+          <t>2022年</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2387.33431066352</v>
+      </c>
+      <c r="C9" t="n">
+        <v>64.20450634202309</v>
+      </c>
+      <c r="D9" t="n">
+        <v>70.1411817196762</v>
+      </c>
+      <c r="E9" t="n">
+        <v>50.2226081968258</v>
+      </c>
+      <c r="F9" t="n">
+        <v>62.8991012811524</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-77.6670278539104</v>
+      </c>
+      <c r="H9" t="n">
+        <v>5.39852763082414</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.78026005481548</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.0339804958888393</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.0171358913888707</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2.99121645739053</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-0.119724010453184</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.338766014404997</v>
+      </c>
+      <c r="O9" t="n">
+        <v>-0.0972687870482502</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.162272930078399</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.11389765662363</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2.29709230033478</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5.78765502949148</v>
+      </c>
+      <c r="T9" t="n">
+        <v>5.29486370157815</v>
+      </c>
+      <c r="U9" t="n">
+        <v>-0.920906367518641</v>
+      </c>
+      <c r="V9" t="n">
+        <v>-0.891926509019057</v>
+      </c>
+      <c r="W9" t="n">
+        <v>-0.59272611383772</v>
+      </c>
+      <c r="X9" t="n">
+        <v>-0.326181082286956</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.269937535853144</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>-0.477315953853016</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>-0.554738738164311</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>-0.670662884823762</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.106524953789279</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>-0.47765026451654</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.154513353304862</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>-0.776292682926828</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>-0.743957231181092</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>-0.657977044476325</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>-1.0289836828351</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>-1.18572471158136</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>-1.16342692332207</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>-0.532756708521898</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>-0.785072024985659</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>-0.397841481292625</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>-0.322467809790924</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>-0.0403900822232136</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>19.0043342469246</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>-0.143817324239914</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0.384084390337181</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>-0.104021926190326</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>0.239036206017339</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>0.0573336308006118</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>0.0268166751657318</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>-0.116557241203468</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>-0.070053544110148</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>-0.00136409994900562</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>-0.228076996621836</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>0.112120729219785</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>43.4908974972103</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>9.67517934002869</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024年</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="inlineStr"/>
-      <c r="AH10" t="inlineStr"/>
-      <c r="AI10" t="inlineStr"/>
-      <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr"/>
-      <c r="AL10" t="inlineStr"/>
-      <c r="AM10" t="inlineStr"/>
-      <c r="AN10" t="inlineStr"/>
-      <c r="AO10" t="inlineStr"/>
-      <c r="AP10" t="inlineStr"/>
-      <c r="AQ10" t="inlineStr"/>
-      <c r="AR10" t="inlineStr"/>
-      <c r="AS10" t="inlineStr"/>
-      <c r="AT10" t="inlineStr"/>
-      <c r="AU10" t="inlineStr"/>
-      <c r="AV10" t="inlineStr"/>
-      <c r="AW10" t="inlineStr"/>
-      <c r="AX10" t="inlineStr"/>
-      <c r="AY10" t="inlineStr"/>
-      <c r="AZ10" t="inlineStr"/>
-      <c r="BA10" t="inlineStr"/>
-      <c r="BB10" t="inlineStr"/>
-      <c r="BC10" t="inlineStr"/>
-      <c r="BD10" t="inlineStr"/>
-      <c r="BE10" t="inlineStr"/>
-      <c r="BF10" t="inlineStr"/>
+          <t>2023年</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2610.4323755905</v>
+      </c>
+      <c r="C10" t="n">
+        <v>263.098556914515</v>
+      </c>
+      <c r="D10" t="n">
+        <v>271.910729308225</v>
+      </c>
+      <c r="E10" t="n">
+        <v>242.815472723743</v>
+      </c>
+      <c r="F10" t="n">
+        <v>253.382061735585</v>
+      </c>
+      <c r="G10" t="n">
+        <v>305.930013589594</v>
+      </c>
+      <c r="H10" t="n">
+        <v>25.4936905455251</v>
+      </c>
+      <c r="I10" t="n">
+        <v>14.9284928492849</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0492338057335144</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.0188956836860147</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2.96368828059279</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-0.438918009448003</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0.016792855756164</v>
+      </c>
+      <c r="O10" t="n">
+        <v>-0.0427392739273919</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.04308872063677</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.02927263314566</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2.16296188442375</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5.69592312172391</v>
+      </c>
+      <c r="T10" t="n">
+        <v>4.96555037856727</v>
+      </c>
+      <c r="U10" t="n">
+        <v>-0.499303047951855</v>
+      </c>
+      <c r="V10" t="n">
+        <v>-0.457058176405879</v>
+      </c>
+      <c r="W10" t="n">
+        <v>-0.351322073383808</v>
+      </c>
+      <c r="X10" t="n">
+        <v>-0.387224487154595</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>1.16309130913091</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>-0.42797256196208</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>-0.470845466899633</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>-0.24279622079855</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.0564696175499904</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>-0.238060570762959</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.180350093832913</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>-0.505664272309584</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>-0.491897689768976</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>-0.381681874069761</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>-0.573800232964475</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>-0.603591535624147</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>-0.525157574580987</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>-0.305757458098751</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>-0.487733126253803</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>-0.165134601695464</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>-0.133406458292888</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>-0.133062835695334</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>80.5796609072672</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>-0.14137707888436</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0.345583381867601</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>-0.225467546754676</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>0.446984404322785</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>0.339804568692163</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>0.00182488837119022</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>0.102148450139131</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>0.0392577493043418</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>0.0142075972303117</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>0.536151556332104</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>0.13817381738174</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>59.9680320973274</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>3.04626933281563</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>2024年</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2744.62354255733</v>
+      </c>
+      <c r="C11" t="n">
+        <v>396.410075787019</v>
+      </c>
+      <c r="D11" t="n">
+        <v>408.863340458609</v>
+      </c>
+      <c r="E11" t="n">
+        <v>367.807326078508</v>
+      </c>
+      <c r="F11" t="n">
+        <v>385.68237465993</v>
+      </c>
+      <c r="G11" t="n">
+        <v>446.015934706568</v>
+      </c>
+      <c r="H11" t="n">
+        <v>39.2521861640109</v>
+      </c>
+      <c r="I11" t="n">
+        <v>21.4593373493976</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0788423047026816</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.026024582199766</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2.94565244850368</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-0.389793043140301</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.439817333851535</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.222677808006218</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.64154197434901</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.98671783909833</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2.13118441507967</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5.63892829382044</v>
+      </c>
+      <c r="T11" t="n">
+        <v>4.83258356004661</v>
+      </c>
+      <c r="U11" t="n">
+        <v>-0.361751360279828</v>
+      </c>
+      <c r="V11" t="n">
+        <v>-0.298070831713951</v>
+      </c>
+      <c r="W11" t="n">
+        <v>-0.343001360279829</v>
+      </c>
+      <c r="X11" t="n">
+        <v>-0.494119218810728</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>1.73027108433736</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>-0.486515740380881</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>-0.478326369996113</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>-0.0142926544889235</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.1687164788185</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>-0.0997920715118541</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0.190586863583365</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>-0.520320151574038</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>-0.496689176059075</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>-0.343730081616788</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>-0.42632432957637</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>-0.392895452778855</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>-0.273575592693354</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>-0.250372619510301</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>-0.370905557714731</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>-0.104867372716673</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>-0.0524076952973183</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>-0.251332102603963</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>119.935386708123</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0.114545277885736</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>0.6356296152351329</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>-0.411785853089773</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>0.65609696851924</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>0.529498639720172</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>0.0486591527399924</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>0.149674504469491</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>0.0392440730664591</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>0.00219102215312866</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>1.37060823940925</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>0.174023513408473</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>80.6200446949087</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>-0.227555382821609</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>2025年</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="inlineStr"/>
-      <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="inlineStr"/>
-      <c r="AF11" t="inlineStr"/>
-      <c r="AG11" t="inlineStr"/>
-      <c r="AH11" t="inlineStr"/>
-      <c r="AI11" t="inlineStr"/>
-      <c r="AJ11" t="inlineStr"/>
-      <c r="AK11" t="inlineStr"/>
-      <c r="AL11" t="inlineStr"/>
-      <c r="AM11" t="inlineStr"/>
-      <c r="AN11" t="inlineStr"/>
-      <c r="AO11" t="inlineStr"/>
-      <c r="AP11" t="inlineStr"/>
-      <c r="AQ11" t="inlineStr"/>
-      <c r="AR11" t="inlineStr"/>
-      <c r="AS11" t="inlineStr"/>
-      <c r="AT11" t="inlineStr"/>
-      <c r="AU11" t="inlineStr"/>
-      <c r="AV11" t="inlineStr"/>
-      <c r="AW11" t="inlineStr"/>
-      <c r="AX11" t="inlineStr"/>
-      <c r="AY11" t="inlineStr"/>
-      <c r="AZ11" t="inlineStr"/>
-      <c r="BA11" t="inlineStr"/>
-      <c r="BB11" t="inlineStr"/>
-      <c r="BC11" t="inlineStr"/>
-      <c r="BD11" t="inlineStr"/>
-      <c r="BE11" t="inlineStr"/>
-      <c r="BF11" t="inlineStr"/>
+      <c r="B12" t="n">
+        <v>2929.9097127223</v>
+      </c>
+      <c r="C12" t="n">
+        <v>589.354309165527</v>
+      </c>
+      <c r="D12" t="n">
+        <v>603.460328317373</v>
+      </c>
+      <c r="E12" t="n">
+        <v>557.361149110807</v>
+      </c>
+      <c r="F12" t="n">
+        <v>573.664842681259</v>
+      </c>
+      <c r="G12" t="n">
+        <v>805.479480164159</v>
+      </c>
+      <c r="H12" t="n">
+        <v>58.9808481532148</v>
+      </c>
+      <c r="I12" t="n">
+        <v>32.9917920656635</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.0960738714090287</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.0248768809849521</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2.91642954856361</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-0.602530779753761</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.798837209302326</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.359507523939808</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.45430916552667</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.90752393980848</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2.05656634746922</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5.58967168262655</v>
+      </c>
+      <c r="T12" t="n">
+        <v>4.66504787961696</v>
+      </c>
+      <c r="U12" t="n">
+        <v>-0.19155950752394</v>
+      </c>
+      <c r="V12" t="n">
+        <v>-0.129603283173735</v>
+      </c>
+      <c r="W12" t="n">
+        <v>-0.350683994528043</v>
+      </c>
+      <c r="X12" t="n">
+        <v>-0.635047879616963</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>2.51593707250342</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>-0.529425444596442</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>-0.461607387140903</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0.320437756497948</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0.295848153214775</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0.0612517099863202</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0.405759233926129</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>-0.5518194254445959</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>-0.570615595075239</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>-0.314493844049247</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>-0.334268125854993</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>-0.09467852257181961</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0.140212038303694</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>-0.223604651162791</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>-0.383953488372093</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>-0.0597400820793433</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>-0.0412859097127222</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>-0.344500683994528</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>180.667578659371</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0.198221614227086</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>0.672298221614227</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>-0.621067031463747</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>0.878043775649797</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>0.833926128590971</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>0.0525991792065664</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>0.222913816689467</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>0.0844733242134063</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>0.00307797537619699</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>2.13727770177838</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>0.198563611491108</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>117.247606019152</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>-13.9870041039672</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
